--- a/Code/Results/Cases/Case_0_218/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_218/res_line/loading_percent.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.888884418455628</v>
+        <v>3.335781415968434</v>
       </c>
       <c r="D2">
-        <v>3.348565793539442</v>
+        <v>4.548792062674039</v>
       </c>
       <c r="E2">
-        <v>11.07556828133289</v>
+        <v>10.86996394917689</v>
       </c>
       <c r="F2">
-        <v>22.88567080620516</v>
+        <v>25.28316119936956</v>
       </c>
       <c r="G2">
-        <v>31.92034490518595</v>
+        <v>31.00171573934332</v>
       </c>
       <c r="H2">
-        <v>9.885602765068072</v>
+        <v>14.42545230254646</v>
       </c>
       <c r="I2">
-        <v>17.09820720140982</v>
+        <v>20.83873490581467</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>19.75304162641885</v>
+        <v>12.86289807999148</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.36898844963434</v>
+        <v>15.20128943422548</v>
       </c>
       <c r="N2">
-        <v>11.27409317124924</v>
+        <v>17.22642167257143</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.711123850868532</v>
+        <v>3.263275551446421</v>
       </c>
       <c r="D3">
-        <v>3.338091183990721</v>
+        <v>4.544437965874929</v>
       </c>
       <c r="E3">
-        <v>10.47599520117971</v>
+        <v>10.7694390102926</v>
       </c>
       <c r="F3">
-        <v>21.88677184167526</v>
+        <v>25.17309191483605</v>
       </c>
       <c r="G3">
-        <v>30.29445436944284</v>
+        <v>30.74402645771804</v>
       </c>
       <c r="H3">
-        <v>9.725694715704176</v>
+        <v>14.45218063625729</v>
       </c>
       <c r="I3">
-        <v>16.49033471876516</v>
+        <v>20.80593083347798</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>18.46844671596398</v>
+        <v>12.37888381533752</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.13659020274822</v>
+        <v>14.91959767325879</v>
       </c>
       <c r="N3">
-        <v>11.50173015920815</v>
+        <v>17.29171022561286</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.597298418309494</v>
+        <v>3.217400953408053</v>
       </c>
       <c r="D4">
-        <v>3.331778658467256</v>
+        <v>4.541847298415709</v>
       </c>
       <c r="E4">
-        <v>10.10453725708519</v>
+        <v>10.71136834086205</v>
       </c>
       <c r="F4">
-        <v>21.2784186216317</v>
+        <v>25.11433420896835</v>
       </c>
       <c r="G4">
-        <v>29.29684614074645</v>
+        <v>30.59835237976664</v>
       </c>
       <c r="H4">
-        <v>9.636825978143596</v>
+        <v>14.47212863619439</v>
       </c>
       <c r="I4">
-        <v>16.12650236896599</v>
+        <v>20.79247663658521</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>17.63641323768908</v>
+        <v>12.07409173371841</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.33994209576296</v>
+        <v>14.74781653073327</v>
       </c>
       <c r="N4">
-        <v>11.64426022392346</v>
+        <v>17.33368307631869</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.549767411068413</v>
+        <v>3.198380299835382</v>
       </c>
       <c r="D5">
-        <v>3.329237688730364</v>
+        <v>4.540812848657552</v>
       </c>
       <c r="E5">
-        <v>9.952490181977506</v>
+        <v>10.68864568291932</v>
       </c>
       <c r="F5">
-        <v>21.03207493573941</v>
+        <v>25.0926255951351</v>
       </c>
       <c r="G5">
-        <v>28.89101247439467</v>
+        <v>30.54220516487712</v>
       </c>
       <c r="H5">
-        <v>9.602898225806923</v>
+        <v>14.48114397800461</v>
       </c>
       <c r="I5">
-        <v>15.98074526928544</v>
+        <v>20.78867648444703</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>17.28642012658316</v>
+        <v>11.94817103844263</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.00516896769937</v>
+        <v>14.67820914260216</v>
       </c>
       <c r="N5">
-        <v>11.70306610946484</v>
+        <v>17.35126296523614</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.541806704206357</v>
+        <v>3.195202663231361</v>
       </c>
       <c r="D6">
-        <v>3.328817710278544</v>
+        <v>4.540642376977014</v>
       </c>
       <c r="E6">
-        <v>9.927207462427647</v>
+        <v>10.68493010862904</v>
       </c>
       <c r="F6">
-        <v>20.99127411352005</v>
+        <v>25.08915632942038</v>
       </c>
       <c r="G6">
-        <v>28.8236832915976</v>
+        <v>30.53307783036331</v>
       </c>
       <c r="H6">
-        <v>9.597400932900317</v>
+        <v>14.48269441154562</v>
       </c>
       <c r="I6">
-        <v>15.95669811332915</v>
+        <v>20.78814708351215</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>17.22764260653705</v>
+        <v>11.92716454582114</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.94896584456298</v>
+        <v>14.66667762257767</v>
       </c>
       <c r="N6">
-        <v>11.71287534001481</v>
+        <v>17.35421086265879</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.596661994833041</v>
+        <v>3.217145735926675</v>
       </c>
       <c r="D7">
-        <v>3.331744260593103</v>
+        <v>4.541833260764585</v>
       </c>
       <c r="E7">
-        <v>10.102489193325</v>
+        <v>10.71105805357463</v>
       </c>
       <c r="F7">
-        <v>21.27508956725038</v>
+        <v>25.11403236819426</v>
       </c>
       <c r="G7">
-        <v>29.29136933882756</v>
+        <v>30.5975820623976</v>
       </c>
       <c r="H7">
-        <v>9.63635923454023</v>
+        <v>14.47224663552445</v>
       </c>
       <c r="I7">
-        <v>16.12452629282364</v>
+        <v>20.79241857411201</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>17.63173742762755</v>
+        <v>12.07240019389706</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.33546836146325</v>
+        <v>14.74687605207403</v>
       </c>
       <c r="N7">
-        <v>11.64505033185329</v>
+        <v>17.33391823713713</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.828580366594916</v>
+        <v>3.311071211906547</v>
       </c>
       <c r="D8">
-        <v>3.344930308090255</v>
+        <v>4.547273864108568</v>
       </c>
       <c r="E8">
-        <v>10.86960847339463</v>
+        <v>10.83455962508573</v>
       </c>
       <c r="F8">
-        <v>22.54039525032654</v>
+        <v>25.24338862424596</v>
       </c>
       <c r="G8">
-        <v>31.3598822884459</v>
+        <v>30.91029900998304</v>
       </c>
       <c r="H8">
-        <v>9.828501514728524</v>
+        <v>14.43393248608948</v>
       </c>
       <c r="I8">
-        <v>16.8867447030413</v>
+        <v>20.82603711581553</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>19.31906435954203</v>
+        <v>12.69770044239603</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.95229364300185</v>
+        <v>15.10397626216311</v>
       </c>
       <c r="N8">
-        <v>11.3520278222935</v>
+        <v>17.2485427570645</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.245188343933069</v>
+        <v>3.483909213785595</v>
       </c>
       <c r="D9">
-        <v>3.371679079329498</v>
+        <v>4.558580115060735</v>
       </c>
       <c r="E9">
-        <v>12.34250941801453</v>
+        <v>11.1045928405611</v>
       </c>
       <c r="F9">
-        <v>25.04940492204224</v>
+        <v>25.56618085831171</v>
       </c>
       <c r="G9">
-        <v>35.40329097550911</v>
+        <v>31.62004648398505</v>
       </c>
       <c r="H9">
-        <v>10.28141382199777</v>
+        <v>14.38698263543629</v>
       </c>
       <c r="I9">
-        <v>18.45032006797699</v>
+        <v>20.94490571897563</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>22.28731866951912</v>
+        <v>13.85591892234691</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>20.81038116340583</v>
+        <v>15.80933475919606</v>
       </c>
       <c r="N9">
-        <v>10.79790274770128</v>
+        <v>17.09601226559922</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.52694690346727</v>
+        <v>3.603244700487151</v>
       </c>
       <c r="D10">
-        <v>3.391829857886842</v>
+        <v>4.567250007162525</v>
       </c>
       <c r="E10">
-        <v>13.57800415371123</v>
+        <v>11.31831409423794</v>
       </c>
       <c r="F10">
-        <v>26.8974511624051</v>
+        <v>25.84402541306034</v>
       </c>
       <c r="G10">
-        <v>38.34829927192776</v>
+        <v>32.19575265906731</v>
       </c>
       <c r="H10">
-        <v>10.66332815862399</v>
+        <v>14.36982148329478</v>
       </c>
       <c r="I10">
-        <v>19.63464937067029</v>
+        <v>21.06423297996626</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>24.2653562824111</v>
+        <v>14.65650917560252</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.72674205262829</v>
+        <v>16.32509247963839</v>
       </c>
       <c r="N10">
-        <v>10.40122185767146</v>
+        <v>16.9929279767273</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.649713112636214</v>
+        <v>3.655736139465261</v>
       </c>
       <c r="D11">
-        <v>3.401104281565744</v>
+        <v>4.571267713949116</v>
       </c>
       <c r="E11">
-        <v>14.13993432938826</v>
+        <v>11.41848694881348</v>
       </c>
       <c r="F11">
-        <v>27.73765540272408</v>
+        <v>25.97887921249669</v>
       </c>
       <c r="G11">
-        <v>39.68068483085472</v>
+        <v>32.46834083011465</v>
       </c>
       <c r="H11">
-        <v>10.8482918971379</v>
+        <v>14.36580435410914</v>
       </c>
       <c r="I11">
-        <v>20.18026736100411</v>
+        <v>21.12536668808135</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>25.12248890654924</v>
+        <v>15.00825843670934</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>23.56046540431302</v>
+        <v>16.55806750180158</v>
       </c>
       <c r="N11">
-        <v>10.2225520399122</v>
+        <v>16.94796144858577</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.695417729334178</v>
+        <v>3.675344902967386</v>
       </c>
       <c r="D12">
-        <v>3.404632335936645</v>
+        <v>4.572799256467228</v>
       </c>
       <c r="E12">
-        <v>14.35024384796414</v>
+        <v>11.45681031490524</v>
       </c>
       <c r="F12">
-        <v>28.05569275980516</v>
+        <v>26.03112487171942</v>
       </c>
       <c r="G12">
-        <v>40.18414670297823</v>
+        <v>32.57300268579012</v>
       </c>
       <c r="H12">
-        <v>10.91999228875432</v>
+        <v>14.36482969584759</v>
       </c>
       <c r="I12">
-        <v>20.38782799605331</v>
+        <v>21.1494903515848</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>25.44104480771576</v>
+        <v>15.13956151023745</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>23.87086604325898</v>
+        <v>16.645964235053</v>
       </c>
       <c r="N12">
-        <v>10.15510999585913</v>
+        <v>16.93120937306588</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.685609375270086</v>
+        <v>3.671133909380323</v>
       </c>
       <c r="D13">
-        <v>3.403871777986282</v>
+        <v>4.572468968698872</v>
       </c>
       <c r="E13">
-        <v>14.30505762975596</v>
+        <v>11.44853989408501</v>
       </c>
       <c r="F13">
-        <v>27.9872038582041</v>
+        <v>26.0198209995015</v>
       </c>
       <c r="G13">
-        <v>40.07576487937566</v>
+        <v>32.55039951767937</v>
       </c>
       <c r="H13">
-        <v>10.90447582298404</v>
+        <v>14.36501527640059</v>
       </c>
       <c r="I13">
-        <v>20.34308426518972</v>
+        <v>21.14425178795083</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>25.372703916504</v>
+        <v>15.1113689613537</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>23.80424930384963</v>
+        <v>16.62704996555806</v>
       </c>
       <c r="N13">
-        <v>10.16962587960313</v>
+        <v>16.93480498818293</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.653489003832123</v>
+        <v>3.657354804623516</v>
       </c>
       <c r="D14">
-        <v>3.40139421010857</v>
+        <v>4.571393514704438</v>
       </c>
       <c r="E14">
-        <v>14.15728539879642</v>
+        <v>11.42163221536566</v>
       </c>
       <c r="F14">
-        <v>27.76382327420117</v>
+        <v>25.98315407930835</v>
       </c>
       <c r="G14">
-        <v>39.72212650707642</v>
+        <v>32.47692317320571</v>
       </c>
       <c r="H14">
-        <v>10.85415722675775</v>
+        <v>14.36571320689489</v>
       </c>
       <c r="I14">
-        <v>20.19732463183538</v>
+        <v>21.12733191527671</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>25.14881666182805</v>
+        <v>15.01909939768024</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>23.58610776078375</v>
+        <v>16.5653058444366</v>
       </c>
       <c r="N14">
-        <v>10.21699944160128</v>
+        <v>16.94657772591366</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.633712069523437</v>
+        <v>3.648879427594206</v>
       </c>
       <c r="D15">
-        <v>3.399878742709882</v>
+        <v>4.570736072379329</v>
       </c>
       <c r="E15">
-        <v>14.06645239815194</v>
+        <v>11.40520026023328</v>
       </c>
       <c r="F15">
-        <v>27.62697848313806</v>
+        <v>25.96084697968726</v>
       </c>
       <c r="G15">
-        <v>39.50537233445051</v>
+        <v>32.43210113331583</v>
       </c>
       <c r="H15">
-        <v>10.82355299472992</v>
+        <v>14.36621192716513</v>
       </c>
       <c r="I15">
-        <v>20.10816534769233</v>
+        <v>21.11709443068191</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>25.01089873569596</v>
+        <v>14.96233167054654</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>23.45180288631643</v>
+        <v>16.52744078114986</v>
       </c>
       <c r="N15">
-        <v>10.24604407480449</v>
+        <v>16.95382474226678</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.518814383384671</v>
+        <v>3.599777226509742</v>
       </c>
       <c r="D16">
-        <v>3.391225952621267</v>
+        <v>4.566988883298479</v>
       </c>
       <c r="E16">
-        <v>13.54092468337121</v>
+        <v>11.31182402403161</v>
       </c>
       <c r="F16">
-        <v>26.84252569922703</v>
+        <v>25.83537953796888</v>
       </c>
       <c r="G16">
-        <v>38.26107269393597</v>
+        <v>32.17814519357668</v>
       </c>
       <c r="H16">
-        <v>10.65146998964067</v>
+        <v>14.37016041293646</v>
       </c>
       <c r="I16">
-        <v>19.59912588731791</v>
+        <v>21.06037466607921</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>24.20849137667111</v>
+        <v>14.63326163188083</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.67150396603473</v>
+        <v>16.30982617164686</v>
       </c>
       <c r="N16">
-        <v>10.41293083895191</v>
+        <v>16.99590530757171</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.446937586694978</v>
+        <v>3.569187159278201</v>
       </c>
       <c r="D17">
-        <v>3.385945534642099</v>
+        <v>4.564708647457618</v>
       </c>
       <c r="E17">
-        <v>13.21394084024429</v>
+        <v>11.25527226037266</v>
       </c>
       <c r="F17">
-        <v>26.36110526084109</v>
+        <v>25.76055079063584</v>
       </c>
       <c r="G17">
-        <v>37.49580939896157</v>
+        <v>32.02502140197485</v>
       </c>
       <c r="H17">
-        <v>10.5488090995831</v>
+        <v>14.37355452995414</v>
       </c>
       <c r="I17">
-        <v>19.28856560880856</v>
+        <v>21.02732603634645</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>23.70538650957169</v>
+        <v>14.42811974331706</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>22.18318067503669</v>
+        <v>16.1758402865994</v>
       </c>
       <c r="N17">
-        <v>10.51573907434642</v>
+        <v>17.0222129763787</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.405087181473523</v>
+        <v>3.551424192440975</v>
       </c>
       <c r="D18">
-        <v>3.38291845175283</v>
+        <v>4.563404084304552</v>
       </c>
       <c r="E18">
-        <v>13.02413350162633</v>
+        <v>11.22302494875999</v>
       </c>
       <c r="F18">
-        <v>26.08415979570963</v>
+        <v>25.71831007094514</v>
       </c>
       <c r="G18">
-        <v>37.05495775789668</v>
+        <v>31.93796166245298</v>
       </c>
       <c r="H18">
-        <v>10.49081548689712</v>
+        <v>14.37586335305994</v>
       </c>
       <c r="I18">
-        <v>19.11058577891437</v>
+        <v>21.0089630060879</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>23.41198830429609</v>
+        <v>14.30896178822164</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.89871933276124</v>
+        <v>16.09862531008915</v>
       </c>
       <c r="N18">
-        <v>10.57504190992794</v>
+        <v>17.03752591127823</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.390830232255599</v>
+        <v>3.545381373664545</v>
       </c>
       <c r="D19">
-        <v>3.381895257073052</v>
+        <v>4.562963593039468</v>
       </c>
       <c r="E19">
-        <v>12.95956567172742</v>
+        <v>11.21215564049368</v>
       </c>
       <c r="F19">
-        <v>25.99038582379628</v>
+        <v>25.70414637100793</v>
       </c>
       <c r="G19">
-        <v>36.90557655542578</v>
+        <v>31.90866169247342</v>
       </c>
       <c r="H19">
-        <v>10.47135961374143</v>
+        <v>14.37670627572963</v>
       </c>
       <c r="I19">
-        <v>19.05043758549171</v>
+        <v>21.002856815527</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>23.31195396022098</v>
+        <v>14.26842024147761</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.80178434322368</v>
+        <v>16.07245870070122</v>
       </c>
       <c r="N19">
-        <v>10.59515126218761</v>
+        <v>17.04274181474081</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.454641709981356</v>
+        <v>3.572461028547049</v>
       </c>
       <c r="D20">
-        <v>3.386506599573422</v>
+        <v>4.564950664724292</v>
       </c>
       <c r="E20">
-        <v>13.24892733254992</v>
+        <v>11.26126358214959</v>
       </c>
       <c r="F20">
-        <v>26.41235857937975</v>
+        <v>25.76843402673687</v>
       </c>
       <c r="G20">
-        <v>37.57734517798526</v>
+        <v>32.04121755780744</v>
       </c>
       <c r="H20">
-        <v>10.55962811033145</v>
+        <v>14.37315629914649</v>
       </c>
       <c r="I20">
-        <v>19.32155878781448</v>
+        <v>21.03077737302147</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>23.75935870913275</v>
+        <v>14.45007892373363</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.23553405261637</v>
+        <v>16.19011948079078</v>
       </c>
       <c r="N20">
-        <v>10.50477762508646</v>
+        <v>17.01939370941505</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.662944857815799</v>
+        <v>3.661409431052333</v>
       </c>
       <c r="D21">
-        <v>3.402121489352857</v>
+        <v>4.571709130646747</v>
       </c>
       <c r="E21">
-        <v>14.20075570457239</v>
+        <v>11.42952534161753</v>
       </c>
       <c r="F21">
-        <v>27.82943929084668</v>
+        <v>25.99389234283699</v>
       </c>
       <c r="G21">
-        <v>39.82602786538407</v>
+        <v>32.49846672179829</v>
       </c>
       <c r="H21">
-        <v>10.86889163705403</v>
+        <v>14.36549336369614</v>
       </c>
       <c r="I21">
-        <v>20.24011222318749</v>
+        <v>21.13227536802296</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>25.21474020890426</v>
+        <v>15.04625346752735</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>23.65032406192579</v>
+        <v>16.58345112160714</v>
       </c>
       <c r="N21">
-        <v>10.20307913369868</v>
+        <v>16.943112313587</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.794510795281074</v>
+        <v>3.717972441018458</v>
       </c>
       <c r="D22">
-        <v>3.412420886050432</v>
+        <v>4.576184969475476</v>
       </c>
       <c r="E22">
-        <v>14.80845360313175</v>
+        <v>11.54175155310261</v>
       </c>
       <c r="F22">
-        <v>28.75483936918779</v>
+        <v>26.14809799076635</v>
       </c>
       <c r="G22">
-        <v>41.29229425440987</v>
+        <v>32.80564267825753</v>
       </c>
       <c r="H22">
-        <v>11.08070428172899</v>
+        <v>14.36367135709289</v>
       </c>
       <c r="I22">
-        <v>20.84596499406936</v>
+        <v>21.20427879071552</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>26.13088074110724</v>
+        <v>15.42479229859025</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>24.5440913705718</v>
+        <v>16.83857863094271</v>
       </c>
       <c r="N22">
-        <v>10.00714296524843</v>
+        <v>16.89486482271954</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.724711307394136</v>
+        <v>3.687930596316306</v>
       </c>
       <c r="D23">
-        <v>3.406914941707499</v>
+        <v>4.573790908265737</v>
       </c>
       <c r="E23">
-        <v>14.48537338273019</v>
+        <v>11.48165919790273</v>
       </c>
       <c r="F23">
-        <v>28.26100932978071</v>
+        <v>26.06518123864444</v>
       </c>
       <c r="G23">
-        <v>40.50893369234522</v>
+        <v>32.64096790562609</v>
       </c>
       <c r="H23">
-        <v>10.96675367607421</v>
+        <v>14.36435181967733</v>
       </c>
       <c r="I23">
-        <v>20.52210889349214</v>
+        <v>21.16533479637161</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>25.64508320584536</v>
+        <v>15.2238061250323</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>24.06984029588562</v>
+        <v>16.7026178487764</v>
       </c>
       <c r="N23">
-        <v>10.11161785684791</v>
+        <v>16.92046882825236</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.451160318268554</v>
+        <v>3.570981460675442</v>
       </c>
       <c r="D24">
-        <v>3.386252915053667</v>
+        <v>4.564841228792172</v>
       </c>
       <c r="E24">
-        <v>13.23311561953715</v>
+        <v>11.25855407739682</v>
       </c>
       <c r="F24">
-        <v>26.38918747965484</v>
+        <v>25.76486758525682</v>
       </c>
       <c r="G24">
-        <v>37.54048562576408</v>
+        <v>32.0338922367643</v>
       </c>
       <c r="H24">
-        <v>10.55473363840219</v>
+        <v>14.37333522575374</v>
       </c>
       <c r="I24">
-        <v>19.30664080701835</v>
+        <v>21.02921503834969</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>23.73497083299926</v>
+        <v>14.44015496733709</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.21187668238776</v>
+        <v>16.18366442556293</v>
       </c>
       <c r="N24">
-        <v>10.5097326796483</v>
+        <v>17.02066771329001</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.136698242609269</v>
+        <v>3.438445800367609</v>
       </c>
       <c r="D25">
-        <v>3.364353416180314</v>
+        <v>4.555455869104498</v>
       </c>
       <c r="E25">
-        <v>11.9479753602536</v>
+        <v>11.02872410124661</v>
       </c>
       <c r="F25">
-        <v>24.36913003395321</v>
+        <v>25.47159278157201</v>
       </c>
       <c r="G25">
-        <v>34.31302238206588</v>
+        <v>31.41815736695614</v>
       </c>
       <c r="H25">
-        <v>10.15044239006055</v>
+        <v>14.3966497283175</v>
       </c>
       <c r="I25">
-        <v>18.0206951454805</v>
+        <v>20.90710230495746</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>21.52032880658891</v>
+        <v>13.55085924151522</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.06996554899143</v>
+        <v>15.61855781128906</v>
       </c>
       <c r="N25">
-        <v>10.9458212025467</v>
+        <v>17.13569185321555</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_218/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_218/res_line/loading_percent.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.335781415968434</v>
+        <v>3.888884418455655</v>
       </c>
       <c r="D2">
-        <v>4.548792062674039</v>
+        <v>3.348565793539565</v>
       </c>
       <c r="E2">
-        <v>10.86996394917689</v>
+        <v>11.07556828133291</v>
       </c>
       <c r="F2">
-        <v>25.28316119936956</v>
+        <v>22.88567080620515</v>
       </c>
       <c r="G2">
-        <v>31.00171573934332</v>
+        <v>31.92034490518601</v>
       </c>
       <c r="H2">
-        <v>14.42545230254646</v>
+        <v>9.885602765068093</v>
       </c>
       <c r="I2">
-        <v>20.83873490581467</v>
+        <v>17.09820720140982</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.86289807999148</v>
+        <v>19.75304162641889</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.20128943422548</v>
+        <v>18.36898844963435</v>
       </c>
       <c r="N2">
-        <v>17.22642167257143</v>
+        <v>11.27409317124917</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.263275551446421</v>
+        <v>3.71112385086871</v>
       </c>
       <c r="D3">
-        <v>4.544437965874929</v>
+        <v>3.338091183990846</v>
       </c>
       <c r="E3">
-        <v>10.7694390102926</v>
+        <v>10.47599520117973</v>
       </c>
       <c r="F3">
-        <v>25.17309191483605</v>
+        <v>21.88677184167516</v>
       </c>
       <c r="G3">
-        <v>30.74402645771804</v>
+        <v>30.29445436944272</v>
       </c>
       <c r="H3">
-        <v>14.45218063625729</v>
+        <v>9.72569471570417</v>
       </c>
       <c r="I3">
-        <v>20.80593083347798</v>
+        <v>16.49033471876509</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.37888381533752</v>
+        <v>18.468446715964</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.91959767325879</v>
+        <v>17.13659020274823</v>
       </c>
       <c r="N3">
-        <v>17.29171022561286</v>
+        <v>11.50173015920812</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.217400953408053</v>
+        <v>3.597298418309685</v>
       </c>
       <c r="D4">
-        <v>4.541847298415709</v>
+        <v>3.331778658467208</v>
       </c>
       <c r="E4">
-        <v>10.71136834086205</v>
+        <v>10.10453725708521</v>
       </c>
       <c r="F4">
-        <v>25.11433420896835</v>
+        <v>21.27841862163177</v>
       </c>
       <c r="G4">
-        <v>30.59835237976664</v>
+        <v>29.29684614074651</v>
       </c>
       <c r="H4">
-        <v>14.47212863619439</v>
+        <v>9.636825978143634</v>
       </c>
       <c r="I4">
-        <v>20.79247663658521</v>
+        <v>16.126502368966</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.07409173371841</v>
+        <v>17.63641323768906</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.74781653073327</v>
+        <v>16.33994209576296</v>
       </c>
       <c r="N4">
-        <v>17.33368307631869</v>
+        <v>11.64426022392349</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.198380299835382</v>
+        <v>3.549767411068323</v>
       </c>
       <c r="D5">
-        <v>4.540812848657552</v>
+        <v>3.329237688730233</v>
       </c>
       <c r="E5">
-        <v>10.68864568291932</v>
+        <v>9.952490181977534</v>
       </c>
       <c r="F5">
-        <v>25.0926255951351</v>
+        <v>21.03207493573941</v>
       </c>
       <c r="G5">
-        <v>30.54220516487712</v>
+        <v>28.89101247439471</v>
       </c>
       <c r="H5">
-        <v>14.48114397800461</v>
+        <v>9.602898225806895</v>
       </c>
       <c r="I5">
-        <v>20.78867648444703</v>
+        <v>15.98074526928545</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.94817103844263</v>
+        <v>17.2864201265832</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.67820914260216</v>
+        <v>16.00516896769935</v>
       </c>
       <c r="N5">
-        <v>17.35126296523614</v>
+        <v>11.70306610946481</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.195202663231361</v>
+        <v>3.541806704206262</v>
       </c>
       <c r="D6">
-        <v>4.540642376977014</v>
+        <v>3.328817710278665</v>
       </c>
       <c r="E6">
-        <v>10.68493010862904</v>
+        <v>9.927207462427655</v>
       </c>
       <c r="F6">
-        <v>25.08915632942038</v>
+        <v>20.99127411352012</v>
       </c>
       <c r="G6">
-        <v>30.53307783036331</v>
+        <v>28.8236832915977</v>
       </c>
       <c r="H6">
-        <v>14.48269441154562</v>
+        <v>9.597400932900356</v>
       </c>
       <c r="I6">
-        <v>20.78814708351215</v>
+        <v>15.95669811332927</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.92716454582114</v>
+        <v>17.22764260653701</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.66667762257767</v>
+        <v>15.94896584456294</v>
       </c>
       <c r="N6">
-        <v>17.35421086265879</v>
+        <v>11.71287534001491</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.217145735926675</v>
+        <v>3.596661994833124</v>
       </c>
       <c r="D7">
-        <v>4.541833260764585</v>
+        <v>3.331744260593049</v>
       </c>
       <c r="E7">
-        <v>10.71105805357463</v>
+        <v>10.10248919332499</v>
       </c>
       <c r="F7">
-        <v>25.11403236819426</v>
+        <v>21.27508956725027</v>
       </c>
       <c r="G7">
-        <v>30.5975820623976</v>
+        <v>29.29136933882736</v>
       </c>
       <c r="H7">
-        <v>14.47224663552445</v>
+        <v>9.636359234540222</v>
       </c>
       <c r="I7">
-        <v>20.79241857411201</v>
+        <v>16.12452629282355</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.07240019389706</v>
+        <v>17.63173742762762</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.74687605207403</v>
+        <v>16.33546836146331</v>
       </c>
       <c r="N7">
-        <v>17.33391823713713</v>
+        <v>11.64505033185329</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.311071211906547</v>
+        <v>3.828580366595026</v>
       </c>
       <c r="D8">
-        <v>4.547273864108568</v>
+        <v>3.344930308090315</v>
       </c>
       <c r="E8">
-        <v>10.83455962508573</v>
+        <v>10.86960847339466</v>
       </c>
       <c r="F8">
-        <v>25.24338862424596</v>
+        <v>22.54039525032645</v>
       </c>
       <c r="G8">
-        <v>30.91029900998304</v>
+        <v>31.35988228844584</v>
       </c>
       <c r="H8">
-        <v>14.43393248608948</v>
+        <v>9.828501514728446</v>
       </c>
       <c r="I8">
-        <v>20.82603711581553</v>
+        <v>16.88674470304121</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.69770044239603</v>
+        <v>19.31906435954209</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.10397626216311</v>
+        <v>17.9522936430019</v>
       </c>
       <c r="N8">
-        <v>17.2485427570645</v>
+        <v>11.35202782229347</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.483909213785595</v>
+        <v>4.245188343932985</v>
       </c>
       <c r="D9">
-        <v>4.558580115060735</v>
+        <v>3.371679079329315</v>
       </c>
       <c r="E9">
-        <v>11.1045928405611</v>
+        <v>12.34250941801453</v>
       </c>
       <c r="F9">
-        <v>25.56618085831171</v>
+        <v>25.04940492204222</v>
       </c>
       <c r="G9">
-        <v>31.62004648398505</v>
+        <v>35.40329097550917</v>
       </c>
       <c r="H9">
-        <v>14.38698263543629</v>
+        <v>10.28141382199775</v>
       </c>
       <c r="I9">
-        <v>20.94490571897563</v>
+        <v>18.45032006797698</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.85591892234691</v>
+        <v>22.28731866951918</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.80933475919606</v>
+        <v>20.81038116340584</v>
       </c>
       <c r="N9">
-        <v>17.09601226559922</v>
+        <v>10.79790274770121</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.603244700487151</v>
+        <v>4.526946903467207</v>
       </c>
       <c r="D10">
-        <v>4.567250007162525</v>
+        <v>3.391829857887124</v>
       </c>
       <c r="E10">
-        <v>11.31831409423794</v>
+        <v>13.5780041537112</v>
       </c>
       <c r="F10">
-        <v>25.84402541306034</v>
+        <v>26.89745116240513</v>
       </c>
       <c r="G10">
-        <v>32.19575265906731</v>
+        <v>38.34829927192779</v>
       </c>
       <c r="H10">
-        <v>14.36982148329478</v>
+        <v>10.66332815862408</v>
       </c>
       <c r="I10">
-        <v>21.06423297996626</v>
+        <v>19.63464937067033</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.65650917560252</v>
+        <v>24.26535628241106</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.32509247963839</v>
+        <v>22.72674205262825</v>
       </c>
       <c r="N10">
-        <v>16.9929279767273</v>
+        <v>10.40122185767149</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.655736139465261</v>
+        <v>4.649713112636222</v>
       </c>
       <c r="D11">
-        <v>4.571267713949116</v>
+        <v>3.401104281565698</v>
       </c>
       <c r="E11">
-        <v>11.41848694881348</v>
+        <v>14.13993432938825</v>
       </c>
       <c r="F11">
-        <v>25.97887921249669</v>
+        <v>27.7376554027241</v>
       </c>
       <c r="G11">
-        <v>32.46834083011465</v>
+        <v>39.68068483085487</v>
       </c>
       <c r="H11">
-        <v>14.36580435410914</v>
+        <v>10.84829189713783</v>
       </c>
       <c r="I11">
-        <v>21.12536668808135</v>
+        <v>20.1802673610041</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.00825843670934</v>
+        <v>25.12248890654935</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.55806750180158</v>
+        <v>23.56046540431306</v>
       </c>
       <c r="N11">
-        <v>16.94796144858577</v>
+        <v>10.22255203991213</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.675344902967386</v>
+        <v>4.695417729334097</v>
       </c>
       <c r="D12">
-        <v>4.572799256467228</v>
+        <v>3.404632335936701</v>
       </c>
       <c r="E12">
-        <v>11.45681031490524</v>
+        <v>14.35024384796413</v>
       </c>
       <c r="F12">
-        <v>26.03112487171942</v>
+        <v>28.05569275980514</v>
       </c>
       <c r="G12">
-        <v>32.57300268579012</v>
+        <v>40.18414670297814</v>
       </c>
       <c r="H12">
-        <v>14.36482969584759</v>
+        <v>10.91999228875437</v>
       </c>
       <c r="I12">
-        <v>21.1494903515848</v>
+        <v>20.38782799605332</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.13956151023745</v>
+        <v>25.44104480771567</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.645964235053</v>
+        <v>23.8708660432589</v>
       </c>
       <c r="N12">
-        <v>16.93120937306588</v>
+        <v>10.1551099958592</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.671133909380323</v>
+        <v>4.685609375270026</v>
       </c>
       <c r="D13">
-        <v>4.572468968698872</v>
+        <v>3.403871777986173</v>
       </c>
       <c r="E13">
-        <v>11.44853989408501</v>
+        <v>14.30505762975595</v>
       </c>
       <c r="F13">
-        <v>26.0198209995015</v>
+        <v>27.98720385820406</v>
       </c>
       <c r="G13">
-        <v>32.55039951767937</v>
+        <v>40.07576487937562</v>
       </c>
       <c r="H13">
-        <v>14.36501527640059</v>
+        <v>10.90447582298401</v>
       </c>
       <c r="I13">
-        <v>21.14425178795083</v>
+        <v>20.34308426518971</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.1113689613537</v>
+        <v>25.372703916504</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.62704996555806</v>
+        <v>23.80424930384962</v>
       </c>
       <c r="N13">
-        <v>16.93480498818293</v>
+        <v>10.1696258796031</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.657354804623516</v>
+        <v>4.653489003832136</v>
       </c>
       <c r="D14">
-        <v>4.571393514704438</v>
+        <v>3.401394210108621</v>
       </c>
       <c r="E14">
-        <v>11.42163221536566</v>
+        <v>14.15728539879641</v>
       </c>
       <c r="F14">
-        <v>25.98315407930835</v>
+        <v>27.76382327420113</v>
       </c>
       <c r="G14">
-        <v>32.47692317320571</v>
+        <v>39.72212650707641</v>
       </c>
       <c r="H14">
-        <v>14.36571320689489</v>
+        <v>10.85415722675771</v>
       </c>
       <c r="I14">
-        <v>21.12733191527671</v>
+        <v>20.19732463183535</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.01909939768024</v>
+        <v>25.14881666182803</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.5653058444366</v>
+        <v>23.58610776078374</v>
       </c>
       <c r="N14">
-        <v>16.94657772591366</v>
+        <v>10.21699944160122</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.648879427594206</v>
+        <v>4.633712069523295</v>
       </c>
       <c r="D15">
-        <v>4.570736072379329</v>
+        <v>3.399878742709873</v>
       </c>
       <c r="E15">
-        <v>11.40520026023328</v>
+        <v>14.06645239815186</v>
       </c>
       <c r="F15">
-        <v>25.96084697968726</v>
+        <v>27.62697848313804</v>
       </c>
       <c r="G15">
-        <v>32.43210113331583</v>
+        <v>39.50537233445051</v>
       </c>
       <c r="H15">
-        <v>14.36621192716513</v>
+        <v>10.82355299472989</v>
       </c>
       <c r="I15">
-        <v>21.11709443068191</v>
+        <v>20.10816534769233</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.96233167054654</v>
+        <v>25.01089873569596</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.52744078114986</v>
+        <v>23.45180288631639</v>
       </c>
       <c r="N15">
-        <v>16.95382474226678</v>
+        <v>10.24604407480442</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.599777226509742</v>
+        <v>4.518814383384665</v>
       </c>
       <c r="D16">
-        <v>4.566988883298479</v>
+        <v>3.391225952621324</v>
       </c>
       <c r="E16">
-        <v>11.31182402403161</v>
+        <v>13.54092468337118</v>
       </c>
       <c r="F16">
-        <v>25.83537953796888</v>
+        <v>26.84252569922705</v>
       </c>
       <c r="G16">
-        <v>32.17814519357668</v>
+        <v>38.26107269393601</v>
       </c>
       <c r="H16">
-        <v>14.37016041293646</v>
+        <v>10.65146998964065</v>
       </c>
       <c r="I16">
-        <v>21.06037466607921</v>
+        <v>19.59912588731792</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.63326163188083</v>
+        <v>24.2084913766711</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.30982617164686</v>
+        <v>22.67150396603471</v>
       </c>
       <c r="N16">
-        <v>16.99590530757171</v>
+        <v>10.41293083895188</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.569187159278201</v>
+        <v>4.446937586694881</v>
       </c>
       <c r="D17">
-        <v>4.564708647457618</v>
+        <v>3.385945534642151</v>
       </c>
       <c r="E17">
-        <v>11.25527226037266</v>
+        <v>13.21394084024426</v>
       </c>
       <c r="F17">
-        <v>25.76055079063584</v>
+        <v>26.36110526084111</v>
       </c>
       <c r="G17">
-        <v>32.02502140197485</v>
+        <v>37.49580939896158</v>
       </c>
       <c r="H17">
-        <v>14.37355452995414</v>
+        <v>10.54880909958313</v>
       </c>
       <c r="I17">
-        <v>21.02732603634645</v>
+        <v>19.2885656088086</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.42811974331706</v>
+        <v>23.70538650957164</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.1758402865994</v>
+        <v>22.18318067503663</v>
       </c>
       <c r="N17">
-        <v>17.0222129763787</v>
+        <v>10.51573907434652</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.551424192440975</v>
+        <v>4.405087181473537</v>
       </c>
       <c r="D18">
-        <v>4.563404084304552</v>
+        <v>3.382918451752826</v>
       </c>
       <c r="E18">
-        <v>11.22302494875999</v>
+        <v>13.02413350162636</v>
       </c>
       <c r="F18">
-        <v>25.71831007094514</v>
+        <v>26.0841597957097</v>
       </c>
       <c r="G18">
-        <v>31.93796166245298</v>
+        <v>37.05495775789678</v>
       </c>
       <c r="H18">
-        <v>14.37586335305994</v>
+        <v>10.49081548689715</v>
       </c>
       <c r="I18">
-        <v>21.0089630060879</v>
+        <v>19.11058577891442</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.30896178822164</v>
+        <v>23.41198830429611</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.09862531008915</v>
+        <v>21.89871933276129</v>
       </c>
       <c r="N18">
-        <v>17.03752591127823</v>
+        <v>10.57504190992793</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.545381373664545</v>
+        <v>4.390830232255656</v>
       </c>
       <c r="D19">
-        <v>4.562963593039468</v>
+        <v>3.381895257072934</v>
       </c>
       <c r="E19">
-        <v>11.21215564049368</v>
+        <v>12.95956567172741</v>
       </c>
       <c r="F19">
-        <v>25.70414637100793</v>
+        <v>25.99038582379625</v>
       </c>
       <c r="G19">
-        <v>31.90866169247342</v>
+        <v>36.9055765554258</v>
       </c>
       <c r="H19">
-        <v>14.37670627572963</v>
+        <v>10.47135961374138</v>
       </c>
       <c r="I19">
-        <v>21.002856815527</v>
+        <v>19.05043758549166</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.26842024147761</v>
+        <v>23.31195396022108</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.07245870070122</v>
+        <v>21.80178434322373</v>
       </c>
       <c r="N19">
-        <v>17.04274181474081</v>
+        <v>10.59515126218757</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.572461028547049</v>
+        <v>4.454641709981336</v>
       </c>
       <c r="D20">
-        <v>4.564950664724292</v>
+        <v>3.386506599573427</v>
       </c>
       <c r="E20">
-        <v>11.26126358214959</v>
+        <v>13.24892733254992</v>
       </c>
       <c r="F20">
-        <v>25.76843402673687</v>
+        <v>26.41235857937978</v>
       </c>
       <c r="G20">
-        <v>32.04121755780744</v>
+        <v>37.57734517798531</v>
       </c>
       <c r="H20">
-        <v>14.37315629914649</v>
+        <v>10.55962811033146</v>
       </c>
       <c r="I20">
-        <v>21.03077737302147</v>
+        <v>19.32155878781451</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.45007892373363</v>
+        <v>23.75935870913275</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.19011948079078</v>
+        <v>22.23553405261634</v>
       </c>
       <c r="N20">
-        <v>17.01939370941505</v>
+        <v>10.50477762508649</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.661409431052333</v>
+        <v>4.662944857815718</v>
       </c>
       <c r="D21">
-        <v>4.571709130646747</v>
+        <v>3.402121489352847</v>
       </c>
       <c r="E21">
-        <v>11.42952534161753</v>
+        <v>14.20075570457239</v>
       </c>
       <c r="F21">
-        <v>25.99389234283699</v>
+        <v>27.82943929084666</v>
       </c>
       <c r="G21">
-        <v>32.49846672179829</v>
+        <v>39.82602786538407</v>
       </c>
       <c r="H21">
-        <v>14.36549336369614</v>
+        <v>10.86889163705408</v>
       </c>
       <c r="I21">
-        <v>21.13227536802296</v>
+        <v>20.24011222318751</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.04625346752735</v>
+        <v>25.21474020890421</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.58345112160714</v>
+        <v>23.65032406192577</v>
       </c>
       <c r="N21">
-        <v>16.943112313587</v>
+        <v>10.20307913369872</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.717972441018458</v>
+        <v>4.794510795281014</v>
       </c>
       <c r="D22">
-        <v>4.576184969475476</v>
+        <v>3.412420886050264</v>
       </c>
       <c r="E22">
-        <v>11.54175155310261</v>
+        <v>14.80845360313171</v>
       </c>
       <c r="F22">
-        <v>26.14809799076635</v>
+        <v>28.75483936918779</v>
       </c>
       <c r="G22">
-        <v>32.80564267825753</v>
+        <v>41.29229425440987</v>
       </c>
       <c r="H22">
-        <v>14.36367135709289</v>
+        <v>11.08070428172897</v>
       </c>
       <c r="I22">
-        <v>21.20427879071552</v>
+        <v>20.84596499406933</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>15.42479229859025</v>
+        <v>26.13088074110728</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.83857863094271</v>
+        <v>24.54409137057179</v>
       </c>
       <c r="N22">
-        <v>16.89486482271954</v>
+        <v>10.00714296524839</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.687930596316306</v>
+        <v>4.724711307394143</v>
       </c>
       <c r="D23">
-        <v>4.573790908265737</v>
+        <v>3.406914941707673</v>
       </c>
       <c r="E23">
-        <v>11.48165919790273</v>
+        <v>14.48537338273021</v>
       </c>
       <c r="F23">
-        <v>26.06518123864444</v>
+        <v>28.26100932978072</v>
       </c>
       <c r="G23">
-        <v>32.64096790562609</v>
+        <v>40.50893369234529</v>
       </c>
       <c r="H23">
-        <v>14.36435181967733</v>
+        <v>10.96675367607419</v>
       </c>
       <c r="I23">
-        <v>21.16533479637161</v>
+        <v>20.52210889349216</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.2238061250323</v>
+        <v>25.64508320584537</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.7026178487764</v>
+        <v>24.06984029588565</v>
       </c>
       <c r="N23">
-        <v>16.92046882825236</v>
+        <v>10.11161785684791</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.570981460675442</v>
+        <v>4.451160318268542</v>
       </c>
       <c r="D24">
-        <v>4.564841228792172</v>
+        <v>3.386252915053658</v>
       </c>
       <c r="E24">
-        <v>11.25855407739682</v>
+        <v>13.23311561953709</v>
       </c>
       <c r="F24">
-        <v>25.76486758525682</v>
+        <v>26.38918747965482</v>
       </c>
       <c r="G24">
-        <v>32.0338922367643</v>
+        <v>37.54048562576413</v>
       </c>
       <c r="H24">
-        <v>14.37333522575374</v>
+        <v>10.55473363840207</v>
       </c>
       <c r="I24">
-        <v>21.02921503834969</v>
+        <v>19.30664080701828</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.44015496733709</v>
+        <v>23.73497083299937</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.18366442556293</v>
+        <v>22.21187668238781</v>
       </c>
       <c r="N24">
-        <v>17.02066771329001</v>
+        <v>10.50973267964824</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.438445800367609</v>
+        <v>4.136698242609269</v>
       </c>
       <c r="D25">
-        <v>4.555455869104498</v>
+        <v>3.364353416180394</v>
       </c>
       <c r="E25">
-        <v>11.02872410124661</v>
+        <v>11.9479753602536</v>
       </c>
       <c r="F25">
-        <v>25.47159278157201</v>
+        <v>24.36913003395326</v>
       </c>
       <c r="G25">
-        <v>31.41815736695614</v>
+        <v>34.31302238206593</v>
       </c>
       <c r="H25">
-        <v>14.3966497283175</v>
+        <v>10.15044239006056</v>
       </c>
       <c r="I25">
-        <v>20.90710230495746</v>
+        <v>18.02069514548058</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.55085924151522</v>
+        <v>21.52032880658877</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.61855781128906</v>
+        <v>20.06996554899137</v>
       </c>
       <c r="N25">
-        <v>17.13569185321555</v>
+        <v>10.94582120254674</v>
       </c>
       <c r="O25">
         <v>0</v>
